--- a/anggaran.xlsx
+++ b/anggaran.xlsx
@@ -11,6 +11,41 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Biaya (Rp)</t>
+  </si>
+  <si>
+    <t>Halaman User</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Hosting (1 GB)</t>
+  </si>
+  <si>
+    <t>Halaman Admin</t>
+  </si>
+  <si>
+    <t>- Halaman Login</t>
+  </si>
+  <si>
+    <t>Pelatihan Penggunaan</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,6 +661,9 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +985,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="4.25" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/anggaran.xlsx
+++ b/anggaran.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -31,16 +31,34 @@
     <t>Domain</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
+    <t>- Modul Otomatis Kirim ke Whatsapp</t>
   </si>
   <si>
     <t>Hosting (1 GB)</t>
   </si>
   <si>
+    <t>- Kustom Desain Tampilan Website</t>
+  </si>
+  <si>
+    <t>- Modul Perhitungan Otomatis</t>
+  </si>
+  <si>
     <t>Halaman Admin</t>
   </si>
   <si>
     <t>- Halaman Login</t>
+  </si>
+  <si>
+    <t>- Halaman Edit Harga Barang</t>
+  </si>
+  <si>
+    <t>- Modul Penentuan Barang Promo</t>
+  </si>
+  <si>
+    <t>- Modul Keamanan Website</t>
+  </si>
+  <si>
+    <t>Perancangan Database</t>
   </si>
   <si>
     <t>Pelatihan Penggunaan</t>
@@ -50,14 +68,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -514,153 +541,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -985,30 +1021,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="4.25" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -1021,20 +1057,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50000</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1042,23 +1088,110 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="G3" s="2">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="C4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="C5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="3">
+        <f>SUM(G2:G4)</f>
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3">
+        <f>SUM(C2:C20)</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/anggaran.xlsx
+++ b/anggaran.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>- Kustom Desain Tampilan Website</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>- Modul Perhitungan Otomatis</t>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1099,18 +1102,20 @@
       <c r="C4" s="2">
         <v>100000</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <f>SUM(G2:G3)</f>
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>50000</v>
-      </c>
-      <c r="G5" s="3">
-        <f>SUM(G2:G4)</f>
-        <v>440000</v>
       </c>
     </row>
     <row r="6" spans="3:3">
@@ -1121,13 +1126,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>200000</v>
@@ -1135,7 +1140,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>300000</v>
@@ -1143,7 +1148,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>100000</v>
@@ -1151,7 +1156,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>100000</v>
@@ -1162,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>100000</v>
@@ -1176,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
